--- a/Data/Manual_kcat.xlsx
+++ b/Data/Manual_kcat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAECC90-387A-8F49-9251-C6FAE56F7BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311933D0-5063-504E-AA1B-88A70CC0FEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="2260" windowWidth="27400" windowHeight="16940" xr2:uid="{B0C24E5C-2384-1D44-AABB-E054366E1B00}"/>
   </bookViews>
@@ -611,7 +611,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Manual_kcat.xlsx
+++ b/Data/Manual_kcat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311933D0-5063-504E-AA1B-88A70CC0FEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48AA8BE-A7D4-B147-B49B-11852C99260A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2260" windowWidth="27400" windowHeight="16940" xr2:uid="{B0C24E5C-2384-1D44-AABB-E054366E1B00}"/>
+    <workbookView xWindow="4940" yWindow="2520" windowWidth="27400" windowHeight="16940" xr2:uid="{B0C24E5C-2384-1D44-AABB-E054366E1B00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="previous" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
   <si>
     <t>Source</t>
   </si>
@@ -200,9 +201,6 @@
     <t>7.1.2.2</t>
   </si>
   <si>
-    <t>from Lactobacillus buchneri -- sa(59.52 µmol/min/mg), mw(97000)</t>
-  </si>
-  <si>
     <t>PMID: 3030360</t>
   </si>
   <si>
@@ -254,17 +252,53 @@
     <t>PMID: 6807956</t>
   </si>
   <si>
-    <t>from BRENDA Bacillus cereus</t>
+    <t>from BRENDA Bacillus cereus (New kcat = 3.3 https://doi.org/10.1111/febs.15337)</t>
+  </si>
+  <si>
+    <t>from Enterococcus faecalis (New kcat = 565 https://doi.org/10.1111/febs.15337)</t>
+  </si>
+  <si>
+    <t>from Lactobacillus buchneri -- sa(59.52 µmol/min/mg), mw(97000) (New kcat = 200 https://doi.org/10.1111/febs.15337)</t>
+  </si>
+  <si>
+    <t>M_ARGORNt7_1_fwd_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_ARGORNt7_2_fwd_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_ARGORNt7_1_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>M_ARGORNt7_2_rvs_Enzyme_c</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/febs.15337</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,15 +321,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9AA18C-80E1-4C42-B793-C62102891DC7}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
@@ -660,38 +699,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1">
         <f>129*46000/1000/60</f>
         <v>98.9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <f>22.4*63716/1000/60</f>
         <v>23.787306666666666</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -732,20 +771,20 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <f>217141.4*75/1000/60</f>
         <v>271.42674999999997</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -968,17 +1007,17 @@
         <v>7</v>
       </c>
       <c r="B20" s="1">
-        <f>2*59.52*97000/1000/60/3</f>
-        <v>64.149333333333331</v>
+        <f>2*200</f>
+        <v>400</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,17 +1025,17 @@
         <v>8</v>
       </c>
       <c r="B21" s="1">
-        <f>2*59.52*97000/1000/60/3</f>
-        <v>64.149333333333331</v>
+        <f>2*200</f>
+        <v>400</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
+      <c r="D21" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1004,17 +1043,17 @@
         <v>39</v>
       </c>
       <c r="B22" s="1">
-        <f>2*4.4</f>
-        <v>8.8000000000000007</v>
+        <f>2*3.3</f>
+        <v>6.6</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1058,17 +1097,17 @@
         <v>48</v>
       </c>
       <c r="B25" s="1">
-        <f>3400*6</f>
-        <v>20400</v>
+        <f>565*6</f>
+        <v>3390</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1076,17 +1115,17 @@
         <v>49</v>
       </c>
       <c r="B26" s="1">
-        <f>3400*6</f>
-        <v>20400</v>
+        <f>565*6</f>
+        <v>3390</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>46</v>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1100,10 +1139,10 @@
         <v>54</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1117,14 +1156,653 @@
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>63</v>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{009ECF57-0FB7-2C45-A203-48A419839B68}"/>
+    <hyperlink ref="D30" r:id="rId2" xr:uid="{6B361C43-885A-114E-94DC-6517427D580B}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{5D4735A4-D453-9247-BE70-41D00CB6099C}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{E5C9BC45-E363-544B-8B47-7AA095BD7082}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{25A772B0-64EA-B648-AF02-E686A7EC672A}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{051D054E-7959-5441-9834-0FA8D903908B}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{5C6925D9-34C0-D347-9053-B114B81EFB24}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{DD556FD3-33DA-6D4B-A734-76955C5B4FEA}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{25298F7F-447B-4241-A638-942CD4BFDD98}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F4A132-BBC3-9246-AAAD-6B14139A7AD8}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <f>161*143220.76/1000/60</f>
+        <v>384.30903933333337</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1">
+        <f>129*46000/1000/60</f>
+        <v>98.9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1">
+        <f>22.4*63716/1000/60</f>
+        <v>23.787306666666666</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>70*4</f>
+        <v>280</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>70*4</f>
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1">
+        <f>217141.4*75/1000/60</f>
+        <v>271.42674999999997</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <f>1400*137591.48/1000/60</f>
+        <v>3210.4678666666664</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <f>1400*139676.36/1000/60</f>
+        <v>3259.1150666666663</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1">
+        <f>1400*140186.32/1000/60</f>
+        <v>3271.0141333333331</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
+        <f>MEDIAN(2*12*180000/1000/60/2,105*40000/1000/60)</f>
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <f>2*38*40000/1000/60</f>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1">
+        <f>2*194*40000/1000/60</f>
+        <v>258.66666666666669</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1">
+        <f>2*35</f>
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <f>93*2</f>
+        <v>186</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <f>1105*2</f>
+        <v>2210</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <f>80*2</f>
+        <v>160</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <f>761*2</f>
+        <v>1522</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <f>2*59.52*97000/1000/60/3</f>
+        <v>64.149333333333331</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <f>2*59.52*97000/1000/60/3</f>
+        <v>64.149333333333331</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1">
+        <f>2*4.4</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <f>90*6</f>
+        <v>540</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <f>90*6</f>
+        <v>540</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1">
+        <f>3400*6</f>
+        <v>20400</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1">
+        <f>3400*6</f>
+        <v>20400</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1">
+        <v>390</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{4FA80EA0-7E51-0B46-99AF-F9FB00E3D210}"/>
+    <hyperlink ref="D30" r:id="rId2" xr:uid="{8B521B76-447B-9043-B3D9-B37FC5E850EB}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{E9B90749-CA20-CD4F-A085-2B8D22265CA6}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{278EEA80-56EC-3E44-95F9-EF39EAAD4251}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>